--- a/cache/Meir.xlsx
+++ b/cache/Meir.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>00:00:26.882143</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>00:02:09.785079</t>
+  </si>
+  <si>
+    <t>00:00:44.337489</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>00:00:56.988638</t>
   </si>
 </sst>
 </file>
@@ -390,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,6 +481,34 @@
         <v>99</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cache/Meir.xlsx
+++ b/cache/Meir.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -74,6 +74,45 @@
   </si>
   <si>
     <t>00:00:56.988638</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>00:04:17.204734</t>
+  </si>
+  <si>
+    <t>00:02:04.525107</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>00:03:33.619775</t>
+  </si>
+  <si>
+    <t>00:01:49.862226</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>00:01:26.518691</t>
+  </si>
+  <si>
+    <t>00:01:10.146465</t>
+  </si>
+  <si>
+    <t>00:03:14.692489</t>
+  </si>
+  <si>
+    <t>00:01:59.206303</t>
+  </si>
+  <si>
+    <t>00:01:51.797009</t>
+  </si>
+  <si>
+    <t>00:01:11.619862</t>
   </si>
 </sst>
 </file>
@@ -405,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,6 +548,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
